--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H2">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I2">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J2">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N2">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q2">
-        <v>4501.54713867504</v>
+        <v>262.0213692927379</v>
       </c>
       <c r="R2">
-        <v>40513.92424807535</v>
+        <v>2358.19232363464</v>
       </c>
       <c r="S2">
-        <v>0.2925643332664362</v>
+        <v>0.04920045352382996</v>
       </c>
       <c r="T2">
-        <v>0.2925643332664362</v>
+        <v>0.04920045352382996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H3">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I3">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J3">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>94.201697</v>
       </c>
       <c r="O3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q3">
-        <v>1912.394501769069</v>
+        <v>411.6669319227021</v>
       </c>
       <c r="R3">
-        <v>17211.55051592162</v>
+        <v>3705.002387304319</v>
       </c>
       <c r="S3">
-        <v>0.124290250688599</v>
+        <v>0.07729980118046023</v>
       </c>
       <c r="T3">
-        <v>0.124290250688599</v>
+        <v>0.07729980118046023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H4">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I4">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J4">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>47.784912</v>
       </c>
       <c r="O4">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P4">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q4">
-        <v>970.0844664859786</v>
+        <v>208.8228635120693</v>
       </c>
       <c r="R4">
-        <v>8730.760198373808</v>
+        <v>1879.405771608624</v>
       </c>
       <c r="S4">
-        <v>0.06304768258699889</v>
+        <v>0.03921122776615997</v>
       </c>
       <c r="T4">
-        <v>0.06304768258699887</v>
+        <v>0.03921122776615997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H5">
         <v>154.277046</v>
       </c>
       <c r="I5">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J5">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N5">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O5">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P5">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q5">
-        <v>3801.034816052166</v>
+        <v>1027.79916585808</v>
       </c>
       <c r="R5">
-        <v>34209.3133444695</v>
+        <v>9250.192492722719</v>
       </c>
       <c r="S5">
-        <v>0.2470366703764268</v>
+        <v>0.1929925991461232</v>
       </c>
       <c r="T5">
-        <v>0.2470366703764268</v>
+        <v>0.1929925991461232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H6">
         <v>154.277046</v>
       </c>
       <c r="I6">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J6">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>94.201697</v>
       </c>
       <c r="O6">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P6">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q6">
         <v>1614.795504594118</v>
@@ -818,10 +818,10 @@
         <v>14533.15954134706</v>
       </c>
       <c r="S6">
-        <v>0.1049487111007505</v>
+        <v>0.3032144721200587</v>
       </c>
       <c r="T6">
-        <v>0.1049487111007505</v>
+        <v>0.3032144721200587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H7">
         <v>154.277046</v>
       </c>
       <c r="I7">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J7">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>47.784912</v>
       </c>
       <c r="O7">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P7">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q7">
-        <v>819.123896303328</v>
+        <v>819.1238963033279</v>
       </c>
       <c r="R7">
-        <v>7372.115066729953</v>
+        <v>7372.115066729951</v>
       </c>
       <c r="S7">
-        <v>0.0532364605327947</v>
+        <v>0.1538090854922015</v>
       </c>
       <c r="T7">
-        <v>0.05323646053279469</v>
+        <v>0.1538090854922015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.735829</v>
       </c>
       <c r="I8">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J8">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N8">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O8">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P8">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q8">
-        <v>1077.551152605709</v>
+        <v>291.3696478496977</v>
       </c>
       <c r="R8">
-        <v>9697.96037345138</v>
+        <v>2622.32683064728</v>
       </c>
       <c r="S8">
-        <v>0.07003215223807674</v>
+        <v>0.05471125830682804</v>
       </c>
       <c r="T8">
-        <v>0.07003215223807674</v>
+        <v>0.05471125830682803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.735829</v>
       </c>
       <c r="I9">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J9">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>94.201697</v>
       </c>
       <c r="O9">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P9">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q9">
         <v>457.7765901668681</v>
@@ -1004,10 +1004,10 @@
         <v>4119.989311501812</v>
       </c>
       <c r="S9">
-        <v>0.02975179394135421</v>
+        <v>0.08595793507070491</v>
       </c>
       <c r="T9">
-        <v>0.0297517939413542</v>
+        <v>0.08595793507070491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.735829</v>
       </c>
       <c r="I10">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J10">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>47.784912</v>
       </c>
       <c r="O10">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P10">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q10">
         <v>232.2125266680053</v>
@@ -1066,10 +1066,10 @@
         <v>2089.912740012048</v>
       </c>
       <c r="S10">
-        <v>0.01509194526856288</v>
+        <v>0.04360316739363355</v>
       </c>
       <c r="T10">
-        <v>0.01509194526856288</v>
+        <v>0.04360316739363355</v>
       </c>
     </row>
   </sheetData>
